--- a/medicine/Enfance/Letizia_Galli/Letizia_Galli.xlsx
+++ b/medicine/Enfance/Letizia_Galli/Letizia_Galli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Letizia Galli, née le 14 mars 1944 à Florence, est une artiste peintre, architecte, auteure et illustratrice italienne en littérature jeunesse.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Letizia Galli est née à Florence. Son père est professeur d'université, sa mère au foyer. Adolescente, elle prend des cours de peinture à l'Académie des Beaux Arts de Florence. Elle apprend les techniques de peinture, sculpture et céramique. Elle suit une formation d'architecte, et débute professionnellement dans cette voie. Elle ne persiste pas et émigre à Milan et y devient dessinatrice. Puis progressivement auteure et illustratrice de livres pour la jeunesse. En 1990, elle part vivre à Paris. Au début des années 2010, elle retourne vivre en Italie et elle vit actuellement à Naples[1],[2],[3],[4],[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Letizia Galli est née à Florence. Son père est professeur d'université, sa mère au foyer. Adolescente, elle prend des cours de peinture à l'Académie des Beaux Arts de Florence. Elle apprend les techniques de peinture, sculpture et céramique. Elle suit une formation d'architecte, et débute professionnellement dans cette voie. Elle ne persiste pas et émigre à Milan et y devient dessinatrice. Puis progressivement auteure et illustratrice de livres pour la jeunesse. En 1990, elle part vivre à Paris. Au début des années 2010, elle retourne vivre en Italie et elle vit actuellement à Naples.
 En 2010, elle a donné 2 906 dessins au Musée de l’illustration jeunesse de Moulins.
 </t>
         </is>
